--- a/medicine/Mort/Liste_des_monuments_aux_morts_du_14e_arrondissement_de_Paris/Liste_des_monuments_aux_morts_du_14e_arrondissement_de_Paris.xlsx
+++ b/medicine/Mort/Liste_des_monuments_aux_morts_du_14e_arrondissement_de_Paris/Liste_des_monuments_aux_morts_du_14e_arrondissement_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article recense les monuments aux morts du 14e arrondissement de Paris, en France.
@@ -512,9 +524,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Monument aux morts du 14e arrondissement, Gilbert Privat (1955, porte d'Orléans)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Monument aux morts du 14e arrondissement, Gilbert Privat (1955, porte d'Orléans)
 Monument aux morts des pupilles de l'État de la ville de Paris (ex département de la Seine), morts pour la France sans famille (hôpital Saint-Vincent-de-Paul)</t>
         </is>
       </c>
